--- a/source_data/TDA_Structured_Data_Country_Region.xlsx
+++ b/source_data/TDA_Structured_Data_Country_Region.xlsx
@@ -1404,9 +1404,6 @@
     <t>Philippines</t>
   </si>
   <si>
-    <t>Republic of the Congo</t>
-  </si>
-  <si>
     <t>Russia</t>
   </si>
   <si>
@@ -1582,6 +1579,9 @@
   </si>
   <si>
     <t>Vietnam</t>
+  </si>
+  <si>
+    <t>Congo</t>
   </si>
 </sst>
 </file>
@@ -2447,8 +2447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C146" sqref="C146"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2473,16 +2473,16 @@
         <v>357</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="F1" s="3" t="s">
-        <v>508</v>
-      </c>
       <c r="G1" s="3" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -2822,7 +2822,7 @@
         <v>365</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C20" s="12" t="s">
         <v>30</v>
@@ -2989,7 +2989,7 @@
         <v>363</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>46</v>
@@ -3006,7 +3006,7 @@
         <v>363</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C30" s="12" t="s">
         <v>47</v>
@@ -3080,7 +3080,7 @@
         <v>369</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>461</v>
+        <v>520</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>55</v>
@@ -4119,7 +4119,7 @@
         <v>363</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C91" s="12" t="s">
         <v>144</v>
@@ -4280,7 +4280,7 @@
         <v>365</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C100" s="12" t="s">
         <v>157</v>
@@ -4299,7 +4299,7 @@
         <v>369</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C101" s="12" t="s">
         <v>159</v>
@@ -4318,7 +4318,7 @@
         <v>365</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C102" s="12" t="s">
         <v>161</v>
@@ -4335,7 +4335,7 @@
         <v>372</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>162</v>
@@ -4352,7 +4352,7 @@
         <v>372</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>163</v>
@@ -4369,7 +4369,7 @@
         <v>372</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>164</v>
@@ -4386,7 +4386,7 @@
         <v>363</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C106" s="12" t="s">
         <v>165</v>
@@ -4403,7 +4403,7 @@
         <v>369</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C107" s="12" t="s">
         <v>166</v>
@@ -4422,7 +4422,7 @@
         <v>369</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C108" s="12" t="s">
         <v>168</v>
@@ -4441,7 +4441,7 @@
         <v>365</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C109" s="12" t="s">
         <v>170</v>
@@ -4460,7 +4460,7 @@
         <v>369</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C110" s="12" t="s">
         <v>172</v>
@@ -4477,7 +4477,7 @@
         <v>369</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C111" s="12" t="s">
         <v>173</v>
@@ -4494,7 +4494,7 @@
         <v>363</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>174</v>
@@ -4511,7 +4511,7 @@
         <v>369</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C113" s="12" t="s">
         <v>175</v>
@@ -4530,7 +4530,7 @@
         <v>369</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C114" s="12" t="s">
         <v>177</v>
@@ -4547,7 +4547,7 @@
         <v>363</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C115" s="12" t="s">
         <v>178</v>
@@ -4564,7 +4564,7 @@
         <v>372</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C116" s="12" t="s">
         <v>179</v>
@@ -4583,7 +4583,7 @@
         <v>369</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C117" s="12" t="s">
         <v>181</v>
@@ -4600,7 +4600,7 @@
         <v>369</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C118" s="12" t="s">
         <v>182</v>
@@ -4619,7 +4619,7 @@
         <v>363</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>184</v>
@@ -4638,7 +4638,7 @@
         <v>363</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>186</v>
@@ -4657,7 +4657,7 @@
         <v>369</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>188</v>
@@ -4676,7 +4676,7 @@
         <v>363</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C122" s="12" t="s">
         <v>190</v>
@@ -4693,7 +4693,7 @@
         <v>363</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C123" s="12" t="s">
         <v>191</v>
@@ -4710,7 +4710,7 @@
         <v>372</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C124" s="12" t="s">
         <v>192</v>
@@ -4727,7 +4727,7 @@
         <v>367</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C125" s="12" t="s">
         <v>193</v>
@@ -4746,7 +4746,7 @@
         <v>365</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C126" s="12" t="s">
         <v>195</v>
@@ -4765,7 +4765,7 @@
         <v>365</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C127" s="12" t="s">
         <v>197</v>
@@ -4782,7 +4782,7 @@
         <v>363</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C128" s="12" t="s">
         <v>198</v>
@@ -4799,7 +4799,7 @@
         <v>369</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C129" s="12" t="s">
         <v>199</v>
@@ -4816,7 +4816,7 @@
         <v>365</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C130" s="12" t="s">
         <v>200</v>
@@ -4835,7 +4835,7 @@
         <v>372</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C131" s="12" t="s">
         <v>202</v>
@@ -4854,7 +4854,7 @@
         <v>363</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C132" s="12" t="s">
         <v>204</v>
@@ -4873,7 +4873,7 @@
         <v>363</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C133" s="12" t="s">
         <v>206</v>
@@ -4890,7 +4890,7 @@
         <v>372</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C134" s="12" t="s">
         <v>207</v>
@@ -4909,7 +4909,7 @@
         <v>365</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C135" s="12" t="s">
         <v>209</v>
@@ -4926,7 +4926,7 @@
         <v>367</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C136" s="12" t="s">
         <v>210</v>
@@ -4945,7 +4945,7 @@
         <v>367</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C137" s="12" t="s">
         <v>212</v>
@@ -4964,7 +4964,7 @@
         <v>367</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C138" s="12" t="s">
         <v>214</v>
@@ -4983,7 +4983,7 @@
         <v>369</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C139" s="12" t="s">
         <v>216</v>
@@ -5000,7 +5000,7 @@
         <v>369</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C140" s="12" t="s">
         <v>217</v>
@@ -5017,7 +5017,7 @@
         <v>363</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C141" s="12"/>
       <c r="D141" s="5"/>
@@ -5030,7 +5030,7 @@
         <v>363</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C142" s="12"/>
       <c r="D142" s="5"/>
@@ -5043,7 +5043,7 @@
         <v>367</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C143" s="12"/>
       <c r="D143" s="5"/>
@@ -5056,7 +5056,7 @@
         <v>363</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C144" s="12"/>
       <c r="D144" s="5"/>
@@ -5069,7 +5069,7 @@
         <v>372</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C145" s="12"/>
       <c r="D145" s="5"/>
@@ -5082,7 +5082,7 @@
         <v>363</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C146" s="12"/>
       <c r="D146" s="5"/>
@@ -5095,7 +5095,7 @@
         <v>369</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C147" s="12"/>
       <c r="D147" s="5"/>
@@ -5108,7 +5108,7 @@
         <v>363</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C148" s="12"/>
       <c r="D148" s="5"/>
@@ -5121,7 +5121,7 @@
         <v>363</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C149" s="12"/>
       <c r="D149" s="5"/>
@@ -5134,7 +5134,7 @@
         <v>363</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C150" s="12"/>
       <c r="D150" s="5"/>
